--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="27">
   <si>
     <t>Honda CRF300L  3.30 Lakh  Launch Date : 30 Mar 2024</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Honda Activa 7G  79,000 thousand Launch Date : Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda CRF300L  3.30 Lakh  Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric  1.10 Lakh  Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Forza 350  3.70 Lakh  Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser  2.30 Lakh  Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa 7G  79,000 thousand Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda PCX160  1.20 Lakh  Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda CBR150R  1.70 Lakh  Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300  2.30 Lakh  Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric  1.10 Lakh  Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser  2.30 Lakh  Expected Launch : Nov 2024</t>
   </si>
 </sst>
 </file>
@@ -453,42 +483,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="27">
   <si>
     <t>Honda CRF300L  3.30 Lakh  Launch Date : 30 Mar 2024</t>
   </si>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="27">
   <si>
     <t>Honda CRF300L  3.30 Lakh  Launch Date : 30 Mar 2024</t>
   </si>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="29">
   <si>
     <t>Honda CRF300L  3.30 Lakh  Launch Date : 30 Mar 2024</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Honda CB350 Cruiser  2.30 Lakh  Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Honda Forza 350  3.70 Lakh  Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda CRF300L  3.30 Lakh  Expected Launch Date : 31 Dec 2050</t>
   </si>
 </sst>
 </file>
@@ -483,42 +489,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
